--- a/downloaded_files/MDES280_Lecture-35486.xlsx
+++ b/downloaded_files/MDES280_Lecture-35486.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمود احمد شكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -116,35 +107,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -462,10 +439,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="24.870625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="39.400625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -533,36 +510,11 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="3">
-        <x:v>45909.9010597569</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
-      <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
-      <x:c r="L2" s="2" t="s"/>
-      <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="2" t="s"/>
-      <x:c r="O2" s="2" t="s"/>
-      <x:c r="P2" s="2" t="s"/>
-      <x:c r="Q2" s="2" t="s"/>
-      <x:c r="R2" s="2" t="s"/>
-      <x:c r="S2" s="2" t="s"/>
-      <x:c r="T2" s="2" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDES280_Lecture-35486.xlsx
+++ b/downloaded_files/MDES280_Lecture-35486.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فريد رامز حسني غزال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farid Ramez Hosny Ghazal</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +116,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -439,10 +462,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.250625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="24.240625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +533,36 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45927.4405496528</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDES280_Lecture-35486.xlsx
+++ b/downloaded_files/MDES280_Lecture-35486.xlsx
@@ -569,11 +569,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MDES280) Location : [20109]20109-45-الجيزة الرئيسي Time : Sunday(16:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MDES280) Location : ----- Time : Sunday(16:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MDES280) Location : [20109]20109-45-الجيزة الرئيسي Time : Sunday(16:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MDES280) Location : ----- Time : Sunday(16:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MDES280) Location : [20109]20109-45-الجيزة الرئيسي Time : Sunday(16:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (MDES280) Location : ----- Time : Sunday(16:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
